--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/EUR_RateVols_v2.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Volatility/EUR_RateVols_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Volatility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18D6D00-F6D9-4C75-AE97-BCD44D860887}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE1E23-9D12-46C1-8D6B-29E4E35757EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="12315" windowHeight="13035" tabRatio="608" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="630" windowWidth="26370" windowHeight="14820" tabRatio="608" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="IRCurve6m">[1]IRBootstrap6m!$D$5</definedName>
     <definedName name="StrikeQuoteUnits">Configuration!$D$2:$D$4</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="181">
   <si>
     <t>Curve Characteristics</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Calibrating IR Curves</t>
-  </si>
-  <si>
-    <t>nabCapital Toolkit © 2006 nabCapital All rights reserved.</t>
   </si>
   <si>
     <t>This spreadsheet shows examples of creating and using interest rate curves.</t>
@@ -2583,8 +2580,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="12.75"/>
@@ -2644,9 +2641,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
-      <c r="K4" s="36" t="s">
-        <v>32</v>
-      </c>
+      <c r="K4" s="36"/>
       <c r="L4" s="35"/>
       <c r="M4" s="34"/>
     </row>
@@ -2681,7 +2676,7 @@
     <row r="7" spans="2:13">
       <c r="B7" s="37"/>
       <c r="C7" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -2725,7 +2720,7 @@
     <row r="10" spans="2:13">
       <c r="B10" s="37"/>
       <c r="C10" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -2755,7 +2750,7 @@
     <row r="12" spans="2:13">
       <c r="B12" s="37"/>
       <c r="C12" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -2771,7 +2766,7 @@
     <row r="13" spans="2:13">
       <c r="B13" s="37"/>
       <c r="C13" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -2787,7 +2782,7 @@
     <row r="14" spans="2:13">
       <c r="B14" s="37"/>
       <c r="C14" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -3324,7 +3319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -3478,10 +3473,10 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>5</v>
@@ -3519,7 +3514,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>7</v>
@@ -3708,10 +3703,10 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>11</v>
@@ -3746,10 +3741,10 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>12</v>
@@ -3784,10 +3779,10 @@
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>13</v>
@@ -3822,10 +3817,10 @@
     </row>
     <row r="14" spans="2:14" ht="13.5" thickBot="1">
       <c r="B14" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>14</v>
@@ -3860,23 +3855,23 @@
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="13.5" thickBot="1">
       <c r="B17" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="53">
         <f ca="1">C3</f>
@@ -3885,10 +3880,10 @@
     </row>
     <row r="18" spans="2:16" ht="13.5" thickBot="1">
       <c r="B18" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="6">
@@ -3921,7 +3916,7 @@
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="54">
         <v>0.66666666666666663</v>
@@ -3969,7 +3964,7 @@
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="54">
         <f>C19</f>
@@ -4315,7 +4310,7 @@
     </row>
     <row r="28" spans="2:16" ht="13.5" thickBot="1">
       <c r="B28" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>30</v>
@@ -4363,7 +4358,7 @@
     </row>
     <row r="29" spans="2:16">
       <c r="B29" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="60">
         <v>720</v>
@@ -4411,7 +4406,7 @@
     </row>
     <row r="30" spans="2:16" ht="13.5" thickBot="1">
       <c r="B30" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" s="61" t="str">
         <f ca="1">C1</f>
@@ -4461,7 +4456,7 @@
     <row r="32" spans="2:16" ht="13.5" thickBot="1"/>
     <row r="33" spans="1:24" ht="13.5" thickBot="1">
       <c r="B33" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>30</v>
@@ -4469,7 +4464,7 @@
     </row>
     <row r="34" spans="1:24" ht="13.5" thickBot="1">
       <c r="B34" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="63" t="e">
         <f>#REF!</f>
@@ -4515,7 +4510,7 @@
     </row>
     <row r="35" spans="1:24">
       <c r="B35" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="64" t="str">
         <f ca="1">C30</f>
@@ -4600,10 +4595,10 @@
     </row>
     <row r="36" spans="1:24" ht="13.5" thickBot="1">
       <c r="B36" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" s="17">
         <f ca="1">E35+182</f>
@@ -5727,10 +5722,10 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>5</v>
@@ -5768,7 +5763,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>7</v>
@@ -5957,10 +5952,10 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>11</v>
@@ -5995,10 +5990,10 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>12</v>
@@ -6033,10 +6028,10 @@
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>13</v>
@@ -6071,10 +6066,10 @@
     </row>
     <row r="14" spans="2:14" ht="13.5" thickBot="1">
       <c r="B14" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>14</v>
@@ -6109,23 +6104,23 @@
     </row>
     <row r="15" spans="2:14">
       <c r="B15" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="2:14">
       <c r="B16" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="13.5" thickBot="1">
       <c r="B17" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="53">
         <f ca="1">C3</f>
@@ -6134,10 +6129,10 @@
     </row>
     <row r="18" spans="2:14" ht="13.5" thickBot="1">
       <c r="B18" s="56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="15" t="str">
@@ -6432,7 +6427,7 @@
     </row>
     <row r="25" spans="2:14" ht="13.5" thickBot="1">
       <c r="B25" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>30</v>
@@ -6480,7 +6475,7 @@
     </row>
     <row r="26" spans="2:14">
       <c r="B26" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="60">
         <v>720</v>
@@ -6528,7 +6523,7 @@
     </row>
     <row r="27" spans="2:14" ht="13.5" thickBot="1">
       <c r="B27" s="56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="61" t="str">
         <f ca="1">C1</f>
@@ -6738,19 +6733,19 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
@@ -6765,500 +6760,500 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="51"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="51"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="51"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="51"/>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D17" s="51"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="51"/>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="51"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="51"/>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="51"/>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="51"/>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
